--- a/Formatter and Linter comparison.xlsx
+++ b/Formatter and Linter comparison.xlsx
@@ -1,32 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\IV Semestr\Kompilatory\AwesomeCodeFixer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E205A-FFAC-474E-BC45-7E0CF9F1AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+  <si>
+    <t>Linters</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>stdin</t>
+  </si>
+  <si>
+    <t>rule config</t>
+  </si>
+  <si>
+    <t>eslint</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>chktex</t>
+  </si>
+  <si>
+    <t>tex</t>
+  </si>
+  <si>
+    <t>cpplint</t>
+  </si>
+  <si>
+    <t>c/cpp</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>sqlfluff</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>flake8</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>Formatter</t>
+  </si>
+  <si>
+    <t>Prettier</t>
+  </si>
+  <si>
+    <t>cat foo | prettier --stdin-filepath foo.css</t>
+  </si>
+  <si>
+    <t>markdown/latex/sql</t>
+  </si>
+  <si>
+    <t>.clang-format</t>
+  </si>
+  <si>
+    <t>echo "print ( 'hello, world' )" | black -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--assume-filename=&lt;string&gt; </t>
+  </si>
+  <si>
+    <t>.chktex</t>
+  </si>
+  <si>
+    <t>Clang-Format</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +441,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Formatter and Linter comparison.xlsx
+++ b/Formatter and Linter comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\IV Semestr\Kompilatory\AwesomeCodeFixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E205A-FFAC-474E-BC45-7E0CF9F1AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44A0CC-EFC8-4319-B79F-74E1442A62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Linters</t>
   </si>
@@ -117,13 +117,37 @@
   </si>
   <si>
     <t>Black</t>
+  </si>
+  <si>
+    <t>clang-format --dry-run --Werror --assume-filename=.cpp</t>
+  </si>
+  <si>
+    <t>sqlfluff lint - --dialect ansi</t>
+  </si>
+  <si>
+    <t>flake8 -</t>
+  </si>
+  <si>
+    <t>npx eslint --stdin --stdin-filename=foo.md</t>
+  </si>
+  <si>
+    <t>clang-format --dry-run --Werror --assume-filename=.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prettier --stdin-filepath foo.xxx</t>
+  </si>
+  <si>
+    <t>black -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clang-format --assume-filename=&lt;string&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +159,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,18 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -605,10 +638,55 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Formatter and Linter comparison.xlsx
+++ b/Formatter and Linter comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\IV Semestr\Kompilatory\AwesomeCodeFixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44A0CC-EFC8-4319-B79F-74E1442A62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40253857-ABD5-4AB4-B7B3-A53055D8F619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Linters</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve">clang-format --assume-filename=&lt;string&gt; </t>
+  </si>
+  <si>
+    <t>clang-tidy --quiet .\e.cpp --</t>
+  </si>
+  <si>
+    <t>clang-tidy --quiet .\i.c --</t>
   </si>
 </sst>
 </file>
@@ -477,16 +483,16 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -659,9 +665,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:12">
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12">
